--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H50_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7126436781609196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4404761904761905</v>
+        <v>0.4940476190476191</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1413060849966803</v>
+        <v>0.1245835101007513</v>
       </c>
       <c r="J2" t="n">
-        <v>1825.603145311752</v>
+        <v>1595.288255261795</v>
       </c>
       <c r="K2" t="n">
-        <v>4291966.639425304</v>
+        <v>3277232.524248964</v>
       </c>
       <c r="L2" t="n">
-        <v>2071.706214554878</v>
+        <v>1810.312824969476</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2090415997953108</v>
+        <v>0.396045027315071</v>
       </c>
     </row>
   </sheetData>
